--- a/Pathway/Pathwayusercredtinals.xlsx
+++ b/Pathway/Pathwayusercredtinals.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{033C608B-6BE0-4AC7-8484-EBA0C472E315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B09664AE-1097-4734-AA67-F5FAA6CD8949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="23304" windowHeight="13224" xr2:uid="{DEE4EFFF-2ED3-4D26-BD22-5CBBE4A017EA}"/>
+    <workbookView xWindow="2820" yWindow="2820" windowWidth="17280" windowHeight="8964" xr2:uid="{DEE4EFFF-2ED3-4D26-BD22-5CBBE4A017EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Username</t>
   </si>
@@ -71,14 +71,20 @@
     <t>demomo@TMobMicrowave.onmicrosoft.com</t>
   </si>
   <si>
-    <t>Jaleel.Khan23@T-Mobile.com</t>
+    <t>demomu@TMobMicrowave.onmicrosoft.com </t>
+  </si>
+  <si>
+    <t>Dev@2021</t>
+  </si>
+  <si>
+    <t>4u2change!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +107,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -134,9 +146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -455,7 +465,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,15 +486,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -495,7 +505,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -517,7 +527,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -528,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -562,10 +572,11 @@
     <hyperlink ref="B6" r:id="rId5" display="mailto:demore@TMobMicrowave.onmicrosoft.com" xr:uid="{CBC6E183-3023-4B17-8753-CA88D6720F32}"/>
     <hyperlink ref="B7" r:id="rId6" display="mailto:demomd@TMobMicrowave.onmicrosoft.com" xr:uid="{B16F0C26-0EDA-415C-992B-03323A70A7DE}"/>
     <hyperlink ref="B8" r:id="rId7" display="mailto:demomo@TMobMicrowave.onmicrosoft.com" xr:uid="{3592F752-8E5D-46D4-B97F-C3AF04481145}"/>
-    <hyperlink ref="B2" r:id="rId8" tooltip="mailto:jaleel.khan23@t-mobile.com" display="mailto:Jaleel.Khan23@T-Mobile.com" xr:uid="{4D813312-758D-42AA-9D93-06CE84867A5E}"/>
-    <hyperlink ref="C2" r:id="rId9" xr:uid="{B4D0909C-7CAD-4053-86FB-69431AACE8BA}"/>
+    <hyperlink ref="B2" r:id="rId8" display="mailto:demomu@TMobMicrowave.onmicrosoft.com" xr:uid="{40985DE7-E00D-4FB7-9B81-0F3EFBA60E5C}"/>
+    <hyperlink ref="C5" r:id="rId9" xr:uid="{BFF947F8-8D10-4407-AF50-7DE1C41AAA0F}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{DA1D3934-C4A4-42D3-906A-F98DFCB50574}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>